--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1337671.200331737</v>
+        <v>-1340566.497700922</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -674,41 +674,41 @@
         <v>4.562286607642875</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="S2" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,37 +756,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.018462044011844</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.54527722751076</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.15738215358876</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="G5" t="n">
-        <v>13.73605918436533</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>48.11300170423663</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.15738215358876</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="W6" t="n">
-        <v>46.17764810782897</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4831901168498682</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.67419203673765</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.15738215358876</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,64 +1136,64 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>127.4298779958539</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="F8" t="n">
+        <v>106.2686442434377</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.25317302789425</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>131.4600546760548</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>21.12316271950942</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="G8" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G9" t="n">
         <v>136.2469034849667</v>
@@ -1230,7 +1230,7 @@
         <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>51.64041629783932</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>34.2136664168947</v>
       </c>
       <c r="T9" t="n">
-        <v>127.2484067900977</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>89.89189848691538</v>
       </c>
       <c r="X10" t="n">
-        <v>89.89189848691532</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680974</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>166.9920602376579</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.62842651468814</v>
+        <v>89.45521285220673</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.5845650051776</v>
+        <v>290.1709282941629</v>
       </c>
       <c r="H14" t="n">
         <v>291.1548178981653</v>
       </c>
       <c r="I14" t="n">
-        <v>28.57854388027081</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.5047135155896</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4420494017926</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>45.13334063779496</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.8190723150763</v>
       </c>
       <c r="H15" t="n">
-        <v>87.85462162425188</v>
+        <v>87.85462162425186</v>
       </c>
       <c r="I15" t="n">
-        <v>12.60618676379657</v>
+        <v>12.60618676379652</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8745695993815</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4103657403711</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.80426144519029</v>
+        <v>91.80426144519024</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.13191257356969</v>
+        <v>67.85766679715971</v>
       </c>
       <c r="S16" t="n">
-        <v>124.2126703524832</v>
+        <v>187.1333479628718</v>
       </c>
       <c r="T16" t="n">
         <v>218.902747730406</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112669</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200481</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.55420402475</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295226</v>
+        <v>60.32014642295191</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179212</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651993</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038399</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452707</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221593</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612654</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716143</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843773</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295329</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
         <v>317.6307663651991</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2251,13 +2251,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510296</v>
       </c>
       <c r="H22" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2293,13 +2293,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2618,10 +2618,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262546</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2773,13 +2773,13 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843753</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295185</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.823760294356</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707159</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="33">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453039</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3718,10 +3718,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3749,10 +3749,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295176</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545723</v>
@@ -3797,13 +3797,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262555</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3898,7 +3898,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659984</v>
@@ -3907,16 +3907,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453006</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3961,7 +3961,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998808</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.19009386086257</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C2" t="n">
-        <v>14.19009386086257</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D2" t="n">
-        <v>14.19009386086257</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E2" t="n">
-        <v>14.19009386086257</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F2" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G2" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H2" t="n">
         <v>0.36498292861143</v>
@@ -4331,49 +4331,49 @@
         <v>4.881646670177876</v>
       </c>
       <c r="K2" t="n">
+        <v>4.881646670177876</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.881646670177876</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.881646670177876</v>
+      </c>
+      <c r="N2" t="n">
         <v>9.398310411744323</v>
       </c>
-      <c r="L2" t="n">
-        <v>9.398310411744323</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.398310411744323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13.91497415331077</v>
-      </c>
       <c r="O2" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P2" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q2" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2491464305715</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S2" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="T2" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U2" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V2" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W2" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X2" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.19009386086257</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.973353239361809</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C3" t="n">
-        <v>4.973353239361809</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D3" t="n">
         <v>4.973353239361809</v>
@@ -4395,13 +4395,13 @@
         <v>4.973353239361809</v>
       </c>
       <c r="F3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I3" t="n">
         <v>0.36498292861143</v>
@@ -4413,13 +4413,13 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L3" t="n">
-        <v>4.69915520587216</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M3" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N3" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O3" t="n">
         <v>18.2491464305715</v>
@@ -4431,28 +4431,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R3" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="S3" t="n">
         <v>13.64077611982112</v>
       </c>
-      <c r="S3" t="n">
-        <v>9.581723550112187</v>
-      </c>
       <c r="T3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.032405809070742</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="C4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D4" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E4" t="n">
-        <v>4.424035498320363</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I4" t="n">
         <v>0.36498292861143</v>
@@ -4489,7 +4489,7 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K4" t="n">
-        <v>4.69915520587216</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L4" t="n">
         <v>9.215818947438606</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.83096941881639</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="C5" t="n">
-        <v>24.83096941881639</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="D5" t="n">
-        <v>24.83096941881639</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="E5" t="n">
-        <v>24.83096941881639</v>
+        <v>155.9296543171618</v>
       </c>
       <c r="F5" t="n">
-        <v>17.88546866961292</v>
+        <v>105.2899900156673</v>
       </c>
       <c r="G5" t="n">
-        <v>4.010661412678248</v>
+        <v>54.65032571417284</v>
       </c>
       <c r="H5" t="n">
-        <v>4.010661412678248</v>
+        <v>54.65032571417284</v>
       </c>
       <c r="I5" t="n">
-        <v>4.010661412678248</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="J5" t="n">
-        <v>4.010661412678248</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="K5" t="n">
-        <v>4.010661412678248</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="L5" t="n">
-        <v>15.36316536850488</v>
+        <v>53.6425963945731</v>
       </c>
       <c r="M5" t="n">
-        <v>59.66445085679666</v>
+        <v>103.2745313764678</v>
       </c>
       <c r="N5" t="n">
-        <v>109.29638583869</v>
+        <v>152.9064663583626</v>
       </c>
       <c r="O5" t="n">
-        <v>158.9283208205833</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="P5" t="n">
-        <v>200.5330706339124</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.5330706339124</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8934063324194</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="S5" t="n">
-        <v>99.25374203092635</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="T5" t="n">
-        <v>99.25374203092635</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="U5" t="n">
-        <v>99.25374203092635</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="V5" t="n">
-        <v>99.25374203092635</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="W5" t="n">
-        <v>99.25374203092635</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="X5" t="n">
-        <v>48.61407772943332</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.61407772943332</v>
+        <v>200.5330706339181</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105.2899900156643</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="C6" t="n">
-        <v>105.2899900156643</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="D6" t="n">
-        <v>105.2899900156643</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="E6" t="n">
-        <v>105.2899900156643</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="F6" t="n">
-        <v>105.2899900156643</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="G6" t="n">
-        <v>54.65032571417127</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="H6" t="n">
-        <v>4.010661412678248</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="I6" t="n">
-        <v>4.010661412678248</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="J6" t="n">
-        <v>4.010661412678248</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="K6" t="n">
-        <v>4.010661412678248</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="L6" t="n">
-        <v>25.80423787362037</v>
+        <v>47.02793987358066</v>
       </c>
       <c r="M6" t="n">
-        <v>75.43617285551369</v>
+        <v>75.43617285551576</v>
       </c>
       <c r="N6" t="n">
-        <v>125.068107837407</v>
+        <v>125.0681078374105</v>
       </c>
       <c r="O6" t="n">
-        <v>174.7000428193003</v>
+        <v>174.7000428193053</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5330706339124</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.5330706339124</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="R6" t="n">
-        <v>151.9340790134713</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="S6" t="n">
-        <v>151.9340790134713</v>
+        <v>149.8934063324236</v>
       </c>
       <c r="T6" t="n">
-        <v>151.9340790134713</v>
+        <v>99.25374203092916</v>
       </c>
       <c r="U6" t="n">
-        <v>151.9340790134713</v>
+        <v>54.65032571417284</v>
       </c>
       <c r="V6" t="n">
-        <v>151.9340790134713</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="W6" t="n">
-        <v>105.2899900156643</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="X6" t="n">
-        <v>105.2899900156643</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="Y6" t="n">
-        <v>105.2899900156643</v>
+        <v>4.010661412678362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.8934063324194</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="C7" t="n">
-        <v>149.8934063324194</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="D7" t="n">
-        <v>149.8934063324194</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="E7" t="n">
-        <v>99.25374203092635</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="F7" t="n">
-        <v>98.76567120582547</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="G7" t="n">
-        <v>48.12600690433244</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="H7" t="n">
-        <v>48.12600690433244</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="I7" t="n">
-        <v>48.12600690433244</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="J7" t="n">
-        <v>4.010661412678248</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="K7" t="n">
-        <v>4.010661412678248</v>
+        <v>51.6372656882339</v>
       </c>
       <c r="L7" t="n">
-        <v>51.63726568823243</v>
+        <v>101.2692006701286</v>
       </c>
       <c r="M7" t="n">
-        <v>101.2692006701257</v>
+        <v>150.9011356520234</v>
       </c>
       <c r="N7" t="n">
-        <v>150.9011356520191</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9011356520191</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="P7" t="n">
-        <v>200.5330706339124</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="Q7" t="n">
-        <v>200.5330706339124</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="R7" t="n">
-        <v>200.5330706339124</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="S7" t="n">
-        <v>200.5330706339124</v>
+        <v>200.5330706339181</v>
       </c>
       <c r="T7" t="n">
-        <v>200.5330706339124</v>
+        <v>149.8934063324236</v>
       </c>
       <c r="U7" t="n">
-        <v>200.5330706339124</v>
+        <v>99.25374203092916</v>
       </c>
       <c r="V7" t="n">
-        <v>200.5330706339124</v>
+        <v>54.65032571417284</v>
       </c>
       <c r="W7" t="n">
-        <v>200.5330706339124</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="X7" t="n">
-        <v>200.5330706339124</v>
+        <v>4.010661412678362</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.5330706339124</v>
+        <v>4.010661412678362</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>578.700626684169</v>
+        <v>411.2275767947228</v>
       </c>
       <c r="C8" t="n">
-        <v>578.700626684169</v>
+        <v>411.2275767947228</v>
       </c>
       <c r="D8" t="n">
-        <v>449.9835782035085</v>
+        <v>411.2275767947228</v>
       </c>
       <c r="E8" t="n">
-        <v>303.8470563135668</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="F8" t="n">
-        <v>157.7105344236251</v>
+        <v>157.7489900124198</v>
       </c>
       <c r="G8" t="n">
-        <v>11.57401253368338</v>
+        <v>144.3619465499003</v>
       </c>
       <c r="H8" t="n">
-        <v>11.57401253368338</v>
+        <v>144.3619465499003</v>
       </c>
       <c r="I8" t="n">
         <v>11.57401253368338</v>
@@ -4826,28 +4826,28 @@
         <v>578.700626684169</v>
       </c>
       <c r="R8" t="n">
-        <v>578.700626684169</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="S8" t="n">
-        <v>578.700626684169</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="T8" t="n">
-        <v>578.700626684169</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="U8" t="n">
-        <v>578.700626684169</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="V8" t="n">
-        <v>578.700626684169</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="W8" t="n">
-        <v>578.700626684169</v>
+        <v>411.2275767947228</v>
       </c>
       <c r="X8" t="n">
-        <v>578.700626684169</v>
+        <v>411.2275767947228</v>
       </c>
       <c r="Y8" t="n">
-        <v>578.700626684169</v>
+        <v>411.2275767947228</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>450.1668824517471</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="C9" t="n">
-        <v>304.0303605618054</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="D9" t="n">
-        <v>304.0303605618054</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="E9" t="n">
-        <v>304.0303605618054</v>
+        <v>398.004845787263</v>
       </c>
       <c r="F9" t="n">
-        <v>304.0303605618054</v>
+        <v>251.8683238973213</v>
       </c>
       <c r="G9" t="n">
-        <v>166.4072257285058</v>
+        <v>114.2451890640216</v>
       </c>
       <c r="H9" t="n">
-        <v>63.73604919816754</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
         <v>11.57401253368338</v>
@@ -4908,25 +4908,25 @@
         <v>578.700626684169</v>
       </c>
       <c r="S9" t="n">
-        <v>578.700626684169</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="T9" t="n">
-        <v>450.1668824517471</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="U9" t="n">
-        <v>450.1668824517471</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="V9" t="n">
-        <v>450.1668824517471</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="W9" t="n">
-        <v>450.1668824517471</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="X9" t="n">
-        <v>450.1668824517471</v>
+        <v>544.1413676772047</v>
       </c>
       <c r="Y9" t="n">
-        <v>450.1668824517471</v>
+        <v>544.1413676772047</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.22061895147928</v>
+        <v>478.6301846213044</v>
       </c>
       <c r="C10" t="n">
-        <v>40.22061895147928</v>
+        <v>478.6301846213044</v>
       </c>
       <c r="D10" t="n">
-        <v>40.22061895147928</v>
+        <v>478.6301846213044</v>
       </c>
       <c r="E10" t="n">
-        <v>40.22061895147928</v>
+        <v>478.6301846213044</v>
       </c>
       <c r="F10" t="n">
-        <v>40.22061895147928</v>
+        <v>332.4936627313626</v>
       </c>
       <c r="G10" t="n">
-        <v>40.22061895147928</v>
+        <v>186.357140841421</v>
       </c>
       <c r="H10" t="n">
         <v>40.22061895147928</v>
@@ -4969,13 +4969,13 @@
         <v>238.5008760846566</v>
       </c>
       <c r="M10" t="n">
-        <v>292.2438164755054</v>
+        <v>243.6377019384681</v>
       </c>
       <c r="N10" t="n">
-        <v>435.4722215798372</v>
+        <v>328.0854715982697</v>
       </c>
       <c r="O10" t="n">
-        <v>578.700626684169</v>
+        <v>471.3138767026015</v>
       </c>
       <c r="P10" t="n">
         <v>578.700626684169</v>
@@ -4987,25 +4987,25 @@
         <v>569.430082082835</v>
       </c>
       <c r="S10" t="n">
-        <v>423.2935601928933</v>
+        <v>569.430082082835</v>
       </c>
       <c r="T10" t="n">
-        <v>423.2935601928933</v>
+        <v>569.430082082835</v>
       </c>
       <c r="U10" t="n">
-        <v>277.1570383029516</v>
+        <v>569.430082082835</v>
       </c>
       <c r="V10" t="n">
-        <v>131.0205164130099</v>
+        <v>569.430082082835</v>
       </c>
       <c r="W10" t="n">
-        <v>131.0205164130099</v>
+        <v>478.6301846213044</v>
       </c>
       <c r="X10" t="n">
-        <v>40.22061895147928</v>
+        <v>478.6301846213044</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.22061895147928</v>
+        <v>478.6301846213044</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767944</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792696</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.483610522582</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X11" t="n">
-        <v>2531.483610522582</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y11" t="n">
-        <v>2362.804761797675</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="12">
@@ -5109,28 +5109,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>793.5809963705864</v>
+        <v>622.8136871311514</v>
       </c>
       <c r="C13" t="n">
-        <v>793.5809963705864</v>
+        <v>453.8775042032445</v>
       </c>
       <c r="D13" t="n">
-        <v>643.4643569582506</v>
+        <v>303.7608647909087</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V13" t="n">
-        <v>1424.011591242373</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W13" t="n">
-        <v>1424.011591242373</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X13" t="n">
-        <v>1196.022040344356</v>
+        <v>843.6062662746815</v>
       </c>
       <c r="Y13" t="n">
-        <v>975.2294612008261</v>
+        <v>622.8136871311514</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.431500113409</v>
+        <v>1800.146095402755</v>
       </c>
       <c r="C14" t="n">
-        <v>1967.468983172997</v>
+        <v>1431.183578462343</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.203284566247</v>
+        <v>1072.917879855593</v>
       </c>
       <c r="E14" t="n">
-        <v>1223.415031968002</v>
+        <v>1072.917879855593</v>
       </c>
       <c r="F14" t="n">
-        <v>812.429127178395</v>
+        <v>661.9319750659854</v>
       </c>
       <c r="G14" t="n">
-        <v>397.6972433347812</v>
+        <v>368.8300272941037</v>
       </c>
       <c r="H14" t="n">
-        <v>103.6014676800688</v>
+        <v>74.73425163939129</v>
       </c>
       <c r="I14" t="n">
-        <v>74.73425163939122</v>
+        <v>74.73425163939129</v>
       </c>
       <c r="J14" t="n">
         <v>291.9433102843045</v>
       </c>
       <c r="K14" t="n">
-        <v>668.2219017991411</v>
+        <v>668.2219017991406</v>
       </c>
       <c r="L14" t="n">
         <v>1171.930529260315</v>
       </c>
       <c r="M14" t="n">
-        <v>1764.072869016992</v>
+        <v>1764.072869016993</v>
       </c>
       <c r="N14" t="n">
-        <v>2370.410499275522</v>
+        <v>2370.410499275524</v>
       </c>
       <c r="O14" t="n">
-        <v>2929.622668570277</v>
+        <v>2929.622668570279</v>
       </c>
       <c r="P14" t="n">
-        <v>3372.396316373605</v>
+        <v>3372.396316373608</v>
       </c>
       <c r="Q14" t="n">
-        <v>3656.728139516222</v>
+        <v>3656.728139516225</v>
       </c>
       <c r="R14" t="n">
-        <v>3736.712581969561</v>
+        <v>3736.712581969564</v>
       </c>
       <c r="S14" t="n">
-        <v>3736.712581969561</v>
+        <v>3634.182568317454</v>
       </c>
       <c r="T14" t="n">
-        <v>3532.225663381892</v>
+        <v>3634.182568317454</v>
       </c>
       <c r="U14" t="n">
-        <v>3532.225663381892</v>
+        <v>3634.182568317454</v>
       </c>
       <c r="V14" t="n">
-        <v>3532.225663381892</v>
+        <v>3303.119680973883</v>
       </c>
       <c r="W14" t="n">
-        <v>3486.636430414422</v>
+        <v>2950.351025703769</v>
       </c>
       <c r="X14" t="n">
-        <v>3113.170672153342</v>
+        <v>2576.885267442688</v>
       </c>
       <c r="Y14" t="n">
-        <v>2723.031340177531</v>
+        <v>2186.745935466877</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.209815667723</v>
       </c>
       <c r="H15" t="n">
-        <v>87.46777362302412</v>
+        <v>87.46777362302413</v>
       </c>
       <c r="I15" t="n">
-        <v>74.73425163939122</v>
+        <v>74.73425163939129</v>
       </c>
       <c r="J15" t="n">
-        <v>185.284631980289</v>
+        <v>185.2846319802892</v>
       </c>
       <c r="K15" t="n">
-        <v>452.3876649133205</v>
+        <v>452.387664913321</v>
       </c>
       <c r="L15" t="n">
-        <v>857.8631964085275</v>
+        <v>857.8631964085284</v>
       </c>
       <c r="M15" t="n">
-        <v>1350.390884790432</v>
+        <v>1350.390884790433</v>
       </c>
       <c r="N15" t="n">
-        <v>1870.362960437676</v>
+        <v>1870.362960437678</v>
       </c>
       <c r="O15" t="n">
-        <v>2323.816029665636</v>
+        <v>2035.742604559413</v>
       </c>
       <c r="P15" t="n">
         <v>2380.345603500328</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>479.8748544524648</v>
+        <v>612.3855093493943</v>
       </c>
       <c r="C16" t="n">
-        <v>479.8748544524648</v>
+        <v>612.3855093493943</v>
       </c>
       <c r="D16" t="n">
-        <v>479.8748544524648</v>
+        <v>462.2688699370586</v>
       </c>
       <c r="E16" t="n">
-        <v>479.8748544524648</v>
+        <v>314.3557763546655</v>
       </c>
       <c r="F16" t="n">
-        <v>479.8748544524648</v>
+        <v>167.4658288567552</v>
       </c>
       <c r="G16" t="n">
-        <v>312.3247841500593</v>
+        <v>167.4658288567552</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4658288567551</v>
+        <v>167.4658288567552</v>
       </c>
       <c r="I16" t="n">
-        <v>74.73425163939122</v>
+        <v>74.73425163939129</v>
       </c>
       <c r="J16" t="n">
-        <v>130.4425315909777</v>
+        <v>130.4425315909779</v>
       </c>
       <c r="K16" t="n">
-        <v>351.8251851724166</v>
+        <v>351.825185172417</v>
       </c>
       <c r="L16" t="n">
-        <v>690.6451969796708</v>
+        <v>690.6451969796713</v>
       </c>
       <c r="M16" t="n">
-        <v>1058.272516453811</v>
+        <v>1058.272516453812</v>
       </c>
       <c r="N16" t="n">
-        <v>1422.593096380171</v>
+        <v>1422.593096380172</v>
       </c>
       <c r="O16" t="n">
         <v>1743.085823422266</v>
       </c>
       <c r="P16" t="n">
-        <v>1993.802036007381</v>
+        <v>1993.802036007382</v>
       </c>
       <c r="Q16" t="n">
-        <v>2083.949865805947</v>
+        <v>2083.949865805948</v>
       </c>
       <c r="R16" t="n">
-        <v>2000.988337953856</v>
+        <v>2015.40676803104</v>
       </c>
       <c r="S16" t="n">
-        <v>1875.520994163469</v>
+        <v>1826.383184230159</v>
       </c>
       <c r="T16" t="n">
-        <v>1654.4071075671</v>
+        <v>1605.269297633789</v>
       </c>
       <c r="U16" t="n">
-        <v>1654.4071075671</v>
+        <v>1605.269297633789</v>
       </c>
       <c r="V16" t="n">
-        <v>1399.722619361213</v>
+        <v>1350.584809427902</v>
       </c>
       <c r="W16" t="n">
-        <v>1110.305449324252</v>
+        <v>1061.167639390942</v>
       </c>
       <c r="X16" t="n">
-        <v>882.3158984262348</v>
+        <v>833.1780884929244</v>
       </c>
       <c r="Y16" t="n">
-        <v>661.5233192827046</v>
+        <v>612.3855093493943</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162841</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5525,40 +5525,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755814</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177178</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277783</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N18" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502082</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477698</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609025</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039778</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315359</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749415</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897901</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L19" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
@@ -5689,7 +5689,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597205</v>
@@ -5704,19 +5704,19 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5729,64 +5729,64 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S20" t="n">
         <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511621</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L21" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M21" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,64 +5884,64 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D22" t="n">
-        <v>617.668592060905</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039816</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315399</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357084</v>
@@ -5950,10 +5950,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,7 +5999,7 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233287</v>
@@ -6011,28 +6011,28 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6130,28 +6130,28 @@
         <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6160,22 +6160,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237501</v>
@@ -6215,7 +6215,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6224,13 +6224,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746738</v>
@@ -6239,13 +6239,13 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755811</v>
@@ -6303,22 +6303,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1665.552851106135</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O27" t="n">
-        <v>2171.957806054385</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6403,22 +6403,22 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
         <v>1407.504522645592</v>
@@ -6427,7 +6427,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162842</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511663</v>
       </c>
       <c r="I29" t="n">
         <v>84.98040897511622</v>
@@ -6464,19 +6464,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612703</v>
@@ -6491,7 +6491,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400162</v>
@@ -6543,25 +6543,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609035</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039789</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
@@ -6622,10 +6622,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6643,28 +6643,28 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6777,28 +6777,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K33" t="n">
-        <v>301.7509472448914</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>535.3638672866908</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6847,7 +6847,7 @@
         <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6856,13 +6856,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6877,16 +6877,16 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
         <v>1458.093420216582</v>
@@ -6938,25 +6938,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
         <v>4249.020448755811</v>
@@ -6968,19 +6968,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
@@ -7126,7 +7126,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7135,7 +7135,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7151,7 +7151,7 @@
         <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216581</v>
@@ -7160,16 +7160,16 @@
         <v>1104.234664943805</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076836</v>
@@ -7181,22 +7181,22 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S38" t="n">
         <v>4188.091007924546</v>
@@ -7245,28 +7245,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
@@ -7394,10 +7394,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
@@ -7412,7 +7412,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050964</v>
@@ -7427,7 +7427,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7494,22 +7494,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D43" t="n">
         <v>617.6685920609043</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597204</v>
@@ -7603,16 +7603,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7655,19 +7655,19 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7728,25 +7728,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,34 +7819,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7979,7 +7979,7 @@
         <v>74.31475871928936</v>
       </c>
       <c r="K2" t="n">
-        <v>57.8521323086317</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L2" t="n">
         <v>28.8362588753597</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.161922983629779</v>
+        <v>13.53987477884264</v>
       </c>
       <c r="P2" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.07992261978383</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>65.05352634584477</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L4" t="n">
-        <v>51.99825569640058</v>
+        <v>51.81392088397056</v>
       </c>
       <c r="M4" t="n">
         <v>51.285670034278</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>48.07603955051931</v>
+        <v>48.0760395505186</v>
       </c>
       <c r="K5" t="n">
-        <v>20.80249232733112</v>
+        <v>20.80249232733007</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38.66609194552203</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5.384494437981353</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>16.2638054766873</v>
+        <v>14.23821890462752</v>
       </c>
       <c r="P5" t="n">
-        <v>47.96769325411314</v>
+        <v>5.942693442668428</v>
       </c>
       <c r="Q5" t="n">
-        <v>53.12205528254034</v>
+        <v>53.12205528253946</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>47.64168602163107</v>
+        <v>47.64168602163066</v>
       </c>
       <c r="K6" t="n">
-        <v>2.482962268157991</v>
+        <v>2.48296226815728</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.98030449161473</v>
+        <v>32.98030449161418</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>47.36556012995794</v>
+        <v>95.47324121637726</v>
       </c>
       <c r="L7" t="n">
-        <v>78.51141419429169</v>
+        <v>80.53700076635232</v>
       </c>
       <c r="M7" t="n">
-        <v>78.8985463389723</v>
+        <v>78.89854633897313</v>
       </c>
       <c r="N7" t="n">
-        <v>70.27767745101636</v>
+        <v>70.27767745101721</v>
       </c>
       <c r="O7" t="n">
-        <v>39.12489454457371</v>
+        <v>39.12489454457319</v>
       </c>
       <c r="P7" t="n">
-        <v>102.8658902732093</v>
+        <v>52.73262261473073</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8617,16 +8617,16 @@
         <v>142.8754692792705</v>
       </c>
       <c r="M10" t="n">
-        <v>49.09708539094673</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>131.6729248303088</v>
+        <v>72.29854559340954</v>
       </c>
       <c r="O10" t="n">
         <v>153.1837627278771</v>
       </c>
       <c r="P10" t="n">
-        <v>26.53509868619516</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.747935129969846e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -23315,16 +23315,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>181.1251564493157</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.2458784183957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.805536131881</v>
+        <v>56.97874979436244</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>120.4136367110147</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.57854388027067</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.5047135155897</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4420494017926</v>
       </c>
       <c r="U14" t="n">
         <v>250.9681991070399</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>304.1076280796181</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8745695993815</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4103657403711</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>14.2742457764099</v>
       </c>
       <c r="S16" t="n">
-        <v>62.92067761038856</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.366401193155653e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.225864020350855e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.431743612556602e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1051020.143231531</v>
+        <v>1051020.14323153</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1263067.690413255</v>
+        <v>1263067.690413254</v>
       </c>
     </row>
     <row r="8">
@@ -26314,16 +26314,16 @@
         <v>184524.0823807227</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
         <v>153448.6945369143</v>
       </c>
       <c r="F2" t="n">
-        <v>161938.0533016936</v>
+        <v>161938.0533016935</v>
       </c>
       <c r="G2" t="n">
         <v>184734.3982194639</v>
@@ -26335,13 +26335,13 @@
         <v>184734.3982194637</v>
       </c>
       <c r="J2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="K2" t="n">
         <v>184734.3982194638</v>
       </c>
-      <c r="K2" t="n">
-        <v>184734.3982194639</v>
-      </c>
       <c r="L2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194639</v>
@@ -26353,7 +26353,7 @@
         <v>184734.3982194639</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>315841.5953976293</v>
       </c>
       <c r="C3" t="n">
-        <v>72573.0135903159</v>
+        <v>72573.01359031822</v>
       </c>
       <c r="D3" t="n">
-        <v>132238.2251049687</v>
+        <v>132238.2251049665</v>
       </c>
       <c r="E3" t="n">
-        <v>670972.9537958342</v>
+        <v>670972.9537958341</v>
       </c>
       <c r="F3" t="n">
-        <v>95741.79737557538</v>
+        <v>95741.7973755764</v>
       </c>
       <c r="G3" t="n">
-        <v>141650.7703031133</v>
+        <v>141650.7703031129</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.348166733805556e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1193.694917170097</v>
+        <v>1193.694917170038</v>
       </c>
       <c r="K3" t="n">
-        <v>11728.51225109136</v>
+        <v>11728.51225109173</v>
       </c>
       <c r="L3" t="n">
-        <v>49215.86311385008</v>
+        <v>49215.86311384945</v>
       </c>
       <c r="M3" t="n">
-        <v>171134.9405490226</v>
+        <v>171134.9405490228</v>
       </c>
       <c r="N3" t="n">
-        <v>25172.78637369726</v>
+        <v>25172.78637369746</v>
       </c>
       <c r="O3" t="n">
         <v>30821.8501124945</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351233.5496182631</v>
+        <v>351233.549618263</v>
       </c>
       <c r="C4" t="n">
-        <v>330516.4037477861</v>
+        <v>330516.4037477854</v>
       </c>
       <c r="D4" t="n">
-        <v>289929.9471536343</v>
+        <v>289929.9471536342</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26430,34 +26430,34 @@
         <v>11653.42042404956</v>
       </c>
       <c r="G4" t="n">
+        <v>42789.59501104676</v>
+      </c>
+      <c r="H4" t="n">
+        <v>42789.59501104699</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42789.59501104703</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42789.59501104699</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42789.59501104701</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42789.59501104697</v>
+      </c>
+      <c r="M4" t="n">
         <v>42789.59501104696</v>
-      </c>
-      <c r="H4" t="n">
-        <v>42789.59501104696</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42789.59501104696</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42789.59501104691</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42789.5950110469</v>
-      </c>
-      <c r="L4" t="n">
-        <v>42789.59501104696</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42789.59501104694</v>
       </c>
       <c r="N4" t="n">
         <v>42789.59501104697</v>
       </c>
       <c r="O4" t="n">
-        <v>42789.59501104697</v>
+        <v>42789.59501104698</v>
       </c>
       <c r="P4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104693</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>41015.74224309583</v>
       </c>
       <c r="C5" t="n">
-        <v>45171.407591817</v>
+        <v>45171.40759181713</v>
       </c>
       <c r="D5" t="n">
         <v>53538.12534878444</v>
@@ -26479,22 +26479,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82383.50122430915</v>
+        <v>82383.50122430922</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215533</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95106.43410215531</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="J5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="H5" t="n">
-        <v>95106.43410215527</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95106.43410215527</v>
-      </c>
-      <c r="J5" t="n">
-        <v>95106.43410215527</v>
-      </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215527</v>
@@ -26509,7 +26509,7 @@
         <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523566.8048782655</v>
+        <v>-523569.1417209182</v>
       </c>
       <c r="C6" t="n">
-        <v>-263526.4267104552</v>
+        <v>-263526.4267104571</v>
       </c>
       <c r="D6" t="n">
-        <v>-290971.8993879238</v>
+        <v>-290971.8993879215</v>
       </c>
       <c r="E6" t="n">
-        <v>-603430.8348174416</v>
+        <v>-603778.4537472476</v>
       </c>
       <c r="F6" t="n">
-        <v>-27840.6657222405</v>
+        <v>-28093.95844355024</v>
       </c>
       <c r="G6" t="n">
-        <v>-94812.40119685163</v>
+        <v>-94812.4011968511</v>
       </c>
       <c r="H6" t="n">
-        <v>46838.3691062617</v>
+        <v>46838.3691062616</v>
       </c>
       <c r="I6" t="n">
-        <v>46838.36910626147</v>
+        <v>46838.36910626173</v>
       </c>
       <c r="J6" t="n">
-        <v>45644.67418909149</v>
+        <v>45644.67418909141</v>
       </c>
       <c r="K6" t="n">
-        <v>35109.85685517032</v>
+        <v>35109.85685516983</v>
       </c>
       <c r="L6" t="n">
-        <v>-2377.494007588539</v>
+        <v>-2377.494007587957</v>
       </c>
       <c r="M6" t="n">
-        <v>-124296.5714427608</v>
+        <v>-124296.5714427611</v>
       </c>
       <c r="N6" t="n">
-        <v>21665.58273256407</v>
+        <v>21665.58273256393</v>
       </c>
       <c r="O6" t="n">
-        <v>16016.51899376717</v>
+        <v>16016.51899376711</v>
       </c>
       <c r="P6" t="n">
-        <v>46838.36910626157</v>
+        <v>46838.36910626141</v>
       </c>
     </row>
   </sheetData>
@@ -26698,19 +26698,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221394</v>
@@ -26719,13 +26719,13 @@
         <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>389.7112347789691</v>
+        <v>389.7112347789712</v>
       </c>
       <c r="D3" t="n">
         <v>509.8291662011503</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1173.645411851919</v>
+        <v>1173.64541185192</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,16 +26790,16 @@
         <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>50.1332676584781</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="D4" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>934.1781454923902</v>
+        <v>934.1781454923911</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221368</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>63.52980279038434</v>
+        <v>63.52980279038638</v>
       </c>
       <c r="D3" t="n">
-        <v>120.1179314221812</v>
+        <v>120.1179314221792</v>
       </c>
       <c r="E3" t="n">
         <v>579.9475343921479</v>
       </c>
       <c r="F3" t="n">
-        <v>83.86871125862035</v>
+        <v>83.86871125862126</v>
       </c>
       <c r="G3" t="n">
-        <v>104.5144587682041</v>
+        <v>104.5144587682039</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>4.562286607642875</v>
       </c>
       <c r="C4" t="n">
-        <v>45.57098105083522</v>
+        <v>45.57098105083666</v>
       </c>
       <c r="D4" t="n">
-        <v>94.54188901256416</v>
+        <v>94.54188901256273</v>
       </c>
       <c r="E4" t="n">
-        <v>686.7262987312506</v>
+        <v>686.7262987312505</v>
       </c>
       <c r="F4" t="n">
-        <v>102.7766900900973</v>
+        <v>102.7766900900983</v>
       </c>
       <c r="G4" t="n">
-        <v>128.0769666965626</v>
+        <v>128.0769666965624</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.562286607643045</v>
+        <v>4.562286607642591</v>
       </c>
       <c r="K4" t="n">
-        <v>45.57098105083522</v>
+        <v>45.57098105083666</v>
       </c>
       <c r="L4" t="n">
-        <v>94.54188901256416</v>
+        <v>94.54188901256273</v>
       </c>
       <c r="M4" t="n">
-        <v>686.7262987312506</v>
+        <v>686.7262987312505</v>
       </c>
       <c r="N4" t="n">
-        <v>102.7766900900973</v>
+        <v>102.7766900900981</v>
       </c>
       <c r="O4" t="n">
         <v>128.0769666965626</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>4.562286607642875</v>
       </c>
       <c r="K4" t="n">
-        <v>45.57098105083522</v>
+        <v>45.57098105083666</v>
       </c>
       <c r="L4" t="n">
-        <v>94.54188901256416</v>
+        <v>94.54188901256273</v>
       </c>
       <c r="M4" t="n">
-        <v>686.7262987312506</v>
+        <v>686.7262987312505</v>
       </c>
       <c r="N4" t="n">
-        <v>102.7766900900973</v>
+        <v>102.7766900900983</v>
       </c>
       <c r="O4" t="n">
-        <v>128.0769666965626</v>
+        <v>128.0769666965624</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>321.4833473056998</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I2" t="n">
         <v>159.9226849201952</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>67.4992912993288</v>
+        <v>63.48082925531696</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1392278518137</v>
+        <v>174.5769412441708</v>
       </c>
       <c r="T2" t="n">
         <v>217.3557120022016</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>382.2194766120417</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.9708970422245</v>
+        <v>162.5147216058555</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>142.8827789569959</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>140.506925785741</v>
       </c>
       <c r="G3" t="n">
         <v>136.6419193661031</v>
@@ -27476,7 +27476,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I3" t="n">
-        <v>60.67845717669304</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>52.03494045792093</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S3" t="n">
-        <v>154.6328376968858</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T3" t="n">
         <v>197.336797223147</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.2696935742944</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>163.228359054616</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>141.8716760389263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>141.4025859789194</v>
+        <v>140.8587614152884</v>
       </c>
       <c r="G4" t="n">
         <v>167.4027833335613</v>
@@ -27555,7 +27555,7 @@
         <v>156.9975751224423</v>
       </c>
       <c r="I4" t="n">
-        <v>137.761816287615</v>
+        <v>133.1995296799722</v>
       </c>
       <c r="J4" t="n">
         <v>51.77372115642321</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>359.1885644359698</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.772987918673</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>356.7427780832319</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>363.6027915258858</v>
       </c>
       <c r="H5" t="n">
-        <v>323.4300576607717</v>
+        <v>323.4300576607716</v>
       </c>
       <c r="I5" t="n">
-        <v>150.0765232234061</v>
+        <v>99.94325556492623</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.322992587457819</v>
+        <v>51.45626024593541</v>
       </c>
       <c r="S5" t="n">
-        <v>123.1861194653521</v>
+        <v>173.31938712383</v>
       </c>
       <c r="T5" t="n">
         <v>216.2377151711869</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>319.597833019991</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>86.37200269784947</v>
+        <v>136.5052703563276</v>
       </c>
       <c r="H6" t="n">
-        <v>54.0064771536477</v>
+        <v>104.1397448121258</v>
       </c>
       <c r="I6" t="n">
-        <v>60.53594235127444</v>
+        <v>60.53594235127429</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>48.11300170423636</v>
       </c>
       <c r="S6" t="n">
-        <v>156.1131043180932</v>
+        <v>105.9798366596136</v>
       </c>
       <c r="T6" t="n">
-        <v>196.7860058197096</v>
+        <v>146.65273816123</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8862342647325</v>
+        <v>181.7288521111437</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>182.6673194909457</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5173350530906</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.6987125234592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>96.30069498809107</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>144.9378579060814</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>117.1549537356251</v>
+        <v>167.2882213941032</v>
       </c>
       <c r="H7" t="n">
         <v>155.9790153334423</v>
       </c>
       <c r="I7" t="n">
-        <v>134.3166263264578</v>
+        <v>134.3166263264577</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>43.6741920367374</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.31564680007005</v>
+        <v>27.31564680006974</v>
       </c>
       <c r="R7" t="n">
-        <v>145.6948378162386</v>
+        <v>145.6948378162385</v>
       </c>
       <c r="S7" t="n">
-        <v>211.7694433308857</v>
+        <v>211.7694433308856</v>
       </c>
       <c r="T7" t="n">
-        <v>224.9428963078534</v>
+        <v>174.8096286493738</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2806971038897</v>
+        <v>236.1474294454102</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.9802611702393</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.3897306781115</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>227.253163624829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>237.2552134012195</v>
       </c>
       <c r="F8" t="n">
-        <v>262.2008890706692</v>
+        <v>300.6074014982737</v>
       </c>
       <c r="G8" t="n">
-        <v>268.578016356852</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760548</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.12316271950942</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>162.3156188332455</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463708</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>28.03334231727348</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>12.96992378435868</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0.3940557223416192</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>51.64041629783932</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>32.07159191921401</v>
       </c>
       <c r="S9" t="n">
-        <v>151.3140530013673</v>
+        <v>117.1003865844726</v>
       </c>
       <c r="T9" t="n">
-        <v>68.49619922794227</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
         <v>225.8692364442482</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0.7458913518889858</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>22.39645861721772</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>9.378033466811644</v>
       </c>
       <c r="I10" t="n">
         <v>127.8026899798254</v>
@@ -28059,22 +28059,22 @@
         <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>63.31943297892008</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
         <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>141.5937255543469</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
-        <v>107.4624866527857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>196.6310998496756</v>
       </c>
       <c r="X10" t="n">
-        <v>135.8177569021218</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221374</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="23">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221388</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
         <v>31.61020235221394</v>
@@ -29815,7 +29815,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221446</v>
       </c>
     </row>
     <row r="33">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221326</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221355</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221194</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
   </sheetData>
@@ -31133,7 +31133,7 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L3" t="n">
-        <v>142.932331575087</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M3" t="n">
         <v>146.6963205296612</v>
@@ -31142,7 +31142,7 @@
         <v>135.9039986909762</v>
       </c>
       <c r="O3" t="n">
-        <v>147.1585310520873</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.566678330769724</v>
+        <v>1.566678330769732</v>
       </c>
       <c r="H5" t="n">
-        <v>16.04474445499544</v>
+        <v>16.04474445499552</v>
       </c>
       <c r="I5" t="n">
-        <v>60.39936634699984</v>
+        <v>60.39936634700016</v>
       </c>
       <c r="J5" t="n">
-        <v>132.969864976167</v>
+        <v>132.9698649761677</v>
       </c>
       <c r="K5" t="n">
-        <v>199.2873587176494</v>
+        <v>199.2873587176505</v>
       </c>
       <c r="L5" t="n">
-        <v>247.2335906829434</v>
+        <v>247.2335906829447</v>
       </c>
       <c r="M5" t="n">
-        <v>275.0950064477695</v>
+        <v>275.0950064477709</v>
       </c>
       <c r="N5" t="n">
-        <v>279.546331255069</v>
+        <v>279.5463312550705</v>
       </c>
       <c r="O5" t="n">
-        <v>263.9676736034775</v>
+        <v>263.9676736034789</v>
       </c>
       <c r="P5" t="n">
-        <v>225.2903023125999</v>
+        <v>225.2903023126011</v>
       </c>
       <c r="Q5" t="n">
-        <v>169.1836345919091</v>
+        <v>169.18363459191</v>
       </c>
       <c r="R5" t="n">
-        <v>98.41285769521376</v>
+        <v>98.41285769521427</v>
       </c>
       <c r="S5" t="n">
-        <v>35.70068246241512</v>
+        <v>35.70068246241531</v>
       </c>
       <c r="T5" t="n">
-        <v>6.85813439294447</v>
+        <v>6.858134392944506</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1253342664615779</v>
+        <v>0.1253342664615786</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8382468068830657</v>
+        <v>0.8382468068830701</v>
       </c>
       <c r="H6" t="n">
-        <v>8.095699424370663</v>
+        <v>8.095699424370705</v>
       </c>
       <c r="I6" t="n">
-        <v>28.86069050014064</v>
+        <v>28.86069050014079</v>
       </c>
       <c r="J6" t="n">
-        <v>79.19594064503562</v>
+        <v>79.19594064503603</v>
       </c>
       <c r="K6" t="n">
-        <v>135.358476706201</v>
+        <v>135.3584767062017</v>
       </c>
       <c r="L6" t="n">
-        <v>160.5680933767854</v>
+        <v>182.006176205028</v>
       </c>
       <c r="M6" t="n">
-        <v>192.2673015804964</v>
+        <v>170.8292187522558</v>
       </c>
       <c r="N6" t="n">
-        <v>181.4749797418114</v>
+        <v>181.4749797418128</v>
       </c>
       <c r="O6" t="n">
-        <v>192.7295121029225</v>
+        <v>192.729512102924</v>
       </c>
       <c r="P6" t="n">
-        <v>160.0683749038374</v>
+        <v>160.0683749038382</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.0014695944068</v>
+        <v>107.0014695944073</v>
       </c>
       <c r="R6" t="n">
-        <v>52.0448324484065</v>
+        <v>52.04483244840677</v>
       </c>
       <c r="S6" t="n">
-        <v>15.57006678574465</v>
+        <v>15.57006678574473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.378722875112005</v>
+        <v>3.378722875112023</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05514781624230698</v>
+        <v>0.05514781624230727</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.702757964355518</v>
+        <v>0.7027579643555217</v>
       </c>
       <c r="H7" t="n">
-        <v>6.248157173997247</v>
+        <v>6.24815717399728</v>
       </c>
       <c r="I7" t="n">
-        <v>21.13384860080049</v>
+        <v>21.1338486008006</v>
       </c>
       <c r="J7" t="n">
-        <v>49.68498807993512</v>
+        <v>49.68498807993538</v>
       </c>
       <c r="K7" t="n">
-        <v>81.64769804057744</v>
+        <v>81.64769804057786</v>
       </c>
       <c r="L7" t="n">
-        <v>104.4809431733649</v>
+        <v>104.4809431733655</v>
       </c>
       <c r="M7" t="n">
-        <v>110.1605052671109</v>
+        <v>110.1605052671114</v>
       </c>
       <c r="N7" t="n">
-        <v>107.5411346726949</v>
+        <v>107.5411346726955</v>
       </c>
       <c r="O7" t="n">
-        <v>99.33164390726908</v>
+        <v>99.33164390726959</v>
       </c>
       <c r="P7" t="n">
-        <v>84.99538143441643</v>
+        <v>84.99538143441688</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.84639645162434</v>
+        <v>58.84639645162464</v>
       </c>
       <c r="R7" t="n">
-        <v>31.59855356093083</v>
+        <v>31.59855356093099</v>
       </c>
       <c r="S7" t="n">
-        <v>12.24715470608662</v>
+        <v>12.24715470608668</v>
       </c>
       <c r="T7" t="n">
-        <v>3.002693120428122</v>
+        <v>3.002693120428138</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03833225260121012</v>
+        <v>0.03833225260121032</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.718172509957459</v>
+        <v>4.718172509957462</v>
       </c>
       <c r="H14" t="n">
-        <v>48.31998421760184</v>
+        <v>48.31998421760187</v>
       </c>
       <c r="I14" t="n">
-        <v>181.8973456901351</v>
+        <v>181.8973456901352</v>
       </c>
       <c r="J14" t="n">
-        <v>400.4489940670022</v>
+        <v>400.4489940670025</v>
       </c>
       <c r="K14" t="n">
-        <v>600.1692364135015</v>
+        <v>600.1692364135019</v>
       </c>
       <c r="L14" t="n">
-        <v>744.5630083651123</v>
+        <v>744.5630083651129</v>
       </c>
       <c r="M14" t="n">
-        <v>828.4698087390682</v>
+        <v>828.4698087390688</v>
       </c>
       <c r="N14" t="n">
-        <v>841.8753163829848</v>
+        <v>841.8753163829855</v>
       </c>
       <c r="O14" t="n">
-        <v>794.9589884870953</v>
+        <v>794.9589884870959</v>
       </c>
       <c r="P14" t="n">
-        <v>678.4791046475204</v>
+        <v>678.479104647521</v>
       </c>
       <c r="Q14" t="n">
-        <v>509.5095516346688</v>
+        <v>509.5095516346692</v>
       </c>
       <c r="R14" t="n">
-        <v>296.3779039286155</v>
+        <v>296.3779039286157</v>
       </c>
       <c r="S14" t="n">
-        <v>107.5153560706557</v>
+        <v>107.5153560706558</v>
       </c>
       <c r="T14" t="n">
-        <v>20.65380016233878</v>
+        <v>20.6538001623388</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3774538007965966</v>
+        <v>0.3774538007965969</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.524444848134316</v>
+        <v>2.524444848134318</v>
       </c>
       <c r="H15" t="n">
-        <v>24.38082261224458</v>
+        <v>24.3808226122446</v>
       </c>
       <c r="I15" t="n">
-        <v>86.91619323620343</v>
+        <v>86.91619323620348</v>
       </c>
       <c r="J15" t="n">
-        <v>238.5046775160583</v>
+        <v>238.5046775160585</v>
       </c>
       <c r="K15" t="n">
-        <v>407.6424823410575</v>
+        <v>407.6424823410578</v>
       </c>
       <c r="L15" t="n">
-        <v>548.1256237144268</v>
+        <v>548.1256237144272</v>
       </c>
       <c r="M15" t="n">
-        <v>639.6367494592956</v>
+        <v>639.6367494592961</v>
       </c>
       <c r="N15" t="n">
-        <v>656.5660309189333</v>
+        <v>656.5660309189338</v>
       </c>
       <c r="O15" t="n">
-        <v>600.6296477050097</v>
+        <v>309.6463900219551</v>
       </c>
       <c r="P15" t="n">
-        <v>191.0749870453329</v>
+        <v>482.0582447283857</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.2431704390401</v>
+        <v>322.2431704390403</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.89045584144219</v>
+        <v>46.89045584144223</v>
       </c>
       <c r="T15" t="n">
-        <v>10.17528427822559</v>
+        <v>10.1752842782256</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1660818979035735</v>
+        <v>0.1660818979035736</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.11640975907723</v>
+        <v>2.116409759077232</v>
       </c>
       <c r="H16" t="n">
-        <v>18.81680676706848</v>
+        <v>18.81680676706849</v>
       </c>
       <c r="I16" t="n">
-        <v>63.64621348206799</v>
+        <v>63.64621348206804</v>
       </c>
       <c r="J16" t="n">
-        <v>149.6301699667601</v>
+        <v>149.6301699667603</v>
       </c>
       <c r="K16" t="n">
-        <v>245.8883338273363</v>
+        <v>245.8883338273365</v>
       </c>
       <c r="L16" t="n">
-        <v>314.6524109086275</v>
+        <v>314.6524109086278</v>
       </c>
       <c r="M16" t="n">
-        <v>331.7568497797152</v>
+        <v>331.7568497797155</v>
       </c>
       <c r="N16" t="n">
-        <v>323.8684134049731</v>
+        <v>323.8684134049734</v>
       </c>
       <c r="O16" t="n">
-        <v>299.1448994012072</v>
+        <v>299.1448994012074</v>
       </c>
       <c r="P16" t="n">
-        <v>255.9701403160314</v>
+        <v>255.9701403160316</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.2204571896397</v>
+        <v>177.2204571896399</v>
       </c>
       <c r="R16" t="n">
-        <v>95.16147880359979</v>
+        <v>95.16147880359988</v>
       </c>
       <c r="S16" t="n">
-        <v>36.88325007410045</v>
+        <v>36.88325007410047</v>
       </c>
       <c r="T16" t="n">
-        <v>9.042841697875435</v>
+        <v>9.042841697875442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1154405323133036</v>
+        <v>0.1154405323133037</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N18" t="n">
-        <v>711.5843147536863</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750686</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K21" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N21" t="n">
-        <v>169.5095981964501</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,40 +32625,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32786,19 +32786,19 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578283</v>
@@ -32807,10 +32807,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33023,10 +33023,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
@@ -33035,13 +33035,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>521.5364117268584</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33263,16 +33263,16 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
@@ -33281,10 +33281,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>223.8954149958798</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>593.4871659531818</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33518,10 +33518,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33737,7 +33737,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>392.4972796419685</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155584</v>
@@ -33749,10 +33749,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,7 +33974,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>392.4972796419685</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
@@ -33986,10 +33986,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34214,25 +34214,25 @@
         <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>472.9693813169756</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34372,7 +34372,7 @@
         <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869759</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
         <v>902.2459874654296</v>
@@ -34390,7 +34390,7 @@
         <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581568</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34448,10 +34448,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34699,7 +34699,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="K2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M3" t="n">
         <v>4.562286607642875</v>
@@ -34790,7 +34790,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O3" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="M4" t="n">
         <v>4.562286607642875</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>11.46717571295619</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="M5" t="n">
-        <v>44.74877322049676</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="N5" t="n">
-        <v>50.13326765847808</v>
+        <v>50.13326765847955</v>
       </c>
       <c r="O5" t="n">
-        <v>50.1332676584781</v>
+        <v>48.10768108641973</v>
       </c>
       <c r="P5" t="n">
-        <v>42.02499981144354</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>22.01371359691124</v>
+        <v>43.45179642515384</v>
       </c>
       <c r="M6" t="n">
-        <v>50.1332676584781</v>
+        <v>28.69518483023748</v>
       </c>
       <c r="N6" t="n">
-        <v>50.1332676584781</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="O6" t="n">
-        <v>50.1332676584781</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="P6" t="n">
-        <v>26.09396748950712</v>
+        <v>26.09396748950795</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>48.10768108641974</v>
       </c>
       <c r="L7" t="n">
-        <v>48.10768108641836</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="M7" t="n">
-        <v>50.1332676584781</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="N7" t="n">
-        <v>50.1332676584781</v>
+        <v>50.13326765847953</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>50.1332676584781</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>144.6751566710423</v>
       </c>
       <c r="M10" t="n">
-        <v>54.28579837459468</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>144.6751566710423</v>
+        <v>85.30077743414303</v>
       </c>
       <c r="O10" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>108.4714646278459</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.4030895403159</v>
+        <v>219.4030895403162</v>
       </c>
       <c r="K14" t="n">
-        <v>380.0793853685209</v>
+        <v>380.0793853685214</v>
       </c>
       <c r="L14" t="n">
-        <v>508.7965933951251</v>
+        <v>508.7965933951256</v>
       </c>
       <c r="M14" t="n">
-        <v>598.1235755117955</v>
+        <v>598.123575511796</v>
       </c>
       <c r="N14" t="n">
-        <v>612.4622527863939</v>
+        <v>612.4622527863946</v>
       </c>
       <c r="O14" t="n">
-        <v>564.8607770654086</v>
+        <v>564.8607770654091</v>
       </c>
       <c r="P14" t="n">
-        <v>447.2461088922509</v>
+        <v>447.2461088922515</v>
       </c>
       <c r="Q14" t="n">
-        <v>287.2038617602193</v>
+        <v>287.2038617602198</v>
       </c>
       <c r="R14" t="n">
-        <v>80.79236611448334</v>
+        <v>80.79236611448357</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.6670508493916</v>
+        <v>111.6670508493918</v>
       </c>
       <c r="K15" t="n">
-        <v>269.8010433666985</v>
+        <v>269.8010433666988</v>
       </c>
       <c r="L15" t="n">
-        <v>409.5712439345526</v>
+        <v>409.571243934553</v>
       </c>
       <c r="M15" t="n">
-        <v>497.5027155372773</v>
+        <v>497.5027155372778</v>
       </c>
       <c r="N15" t="n">
-        <v>525.2243188356</v>
+        <v>525.2243188356006</v>
       </c>
       <c r="O15" t="n">
-        <v>458.0334032605653</v>
+        <v>167.0501455775106</v>
       </c>
       <c r="P15" t="n">
-        <v>57.10057963100268</v>
+        <v>348.0838373140554</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.2613963530185</v>
+        <v>182.2613963530188</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.27098985008737</v>
+        <v>56.27098985008749</v>
       </c>
       <c r="K16" t="n">
-        <v>223.6188420014535</v>
+        <v>223.6188420014537</v>
       </c>
       <c r="L16" t="n">
-        <v>342.2424361689436</v>
+        <v>342.2424361689439</v>
       </c>
       <c r="M16" t="n">
-        <v>371.3407267415558</v>
+        <v>371.3407267415561</v>
       </c>
       <c r="N16" t="n">
-        <v>368.0005857842017</v>
+        <v>368.0005857842019</v>
       </c>
       <c r="O16" t="n">
-        <v>323.7300273152468</v>
+        <v>323.7300273152471</v>
       </c>
       <c r="P16" t="n">
-        <v>253.2486995809249</v>
+        <v>253.2486995809251</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.05841393794533</v>
+        <v>91.05841393794547</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>580.242602670353</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306242</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
@@ -36057,10 +36057,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K21" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>38.16788611311679</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
         <v>671.8997542381569</v>
@@ -36379,7 +36379,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440256</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O24" t="n">
         <v>511.5201565133839</v>
@@ -36455,10 +36455,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
@@ -36683,13 +36683,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
@@ -36929,10 +36929,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>86.05397602152078</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>454.9327861733077</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37166,10 +37166,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>254.6558406676095</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356842</v>
@@ -37397,10 +37397,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381577</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N38" t="n">
         <v>687.4322072151681</v>
@@ -37564,7 +37564,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>254.6558406676095</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
@@ -37634,10 +37634,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553052</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37862,25 +37862,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>334.4150015371014</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
         <v>277.1256801414978</v>
@@ -37944,19 +37944,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641561</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
         <v>671.8997542381569</v>
@@ -38038,7 +38038,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
